--- a/축구.xlsx
+++ b/축구.xlsx
@@ -87,9 +87,6 @@
     <t>fb_gimcheon</t>
   </si>
   <si>
-    <t>fb_suwonfc</t>
-  </si>
-  <si>
     <t>8월7일</t>
   </si>
   <si>
@@ -317,13 +314,17 @@
   <si>
     <t>fb_st_pk</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb_suwon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -370,6 +371,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -479,7 +487,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -526,6 +534,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -808,7 +822,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -820,24 +834,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="15">
         <v>37.855952000000002</v>
@@ -848,10 +862,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="15">
         <v>37.773561000000001</v>
@@ -865,7 +879,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="15">
         <v>36.139665999999998</v>
@@ -879,7 +893,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="15">
         <v>35.881253000000001</v>
@@ -893,7 +907,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="15">
         <v>37.56823</v>
@@ -907,7 +921,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="15">
         <v>37.410165999999997</v>
@@ -918,10 +932,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="15">
         <v>37.286420999999997</v>
@@ -931,11 +945,11 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>18</v>
+      <c r="A9" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="15">
         <v>37.297745999999997</v>
@@ -949,7 +963,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="15">
         <v>35.535328</v>
@@ -963,7 +977,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="15">
         <v>37.466130999999997</v>
@@ -977,7 +991,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="15">
         <v>35.868071</v>
@@ -988,10 +1002,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="15">
         <v>33.246212</v>
@@ -1005,7 +1019,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="15">
         <v>35.997745000000002</v>
@@ -1040,19 +1054,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1063,7 +1077,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="10">
         <v>0.8125</v>
@@ -1080,7 +1094,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="12">
         <v>0.83333333333333337</v>
@@ -1097,7 +1111,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="12">
         <v>0.79166666666666663</v>
@@ -1114,13 +1128,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="12">
         <v>0.83333333333333337</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1131,7 +1145,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="12">
         <v>0.83333333333333337</v>
@@ -1148,7 +1162,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="12">
         <v>0.79166666666666663</v>
@@ -1165,7 +1179,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="12">
         <v>0.79166666666666663</v>
@@ -1182,7 +1196,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="12">
         <v>0.6875</v>
@@ -1199,7 +1213,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="12">
         <v>0.625</v>
@@ -1234,19 +1248,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1257,7 +1271,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="10">
         <v>0.8125</v>
@@ -1274,13 +1288,13 @@
         <v>13</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="12">
         <v>0.79166666666666663</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1291,7 +1305,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="12">
         <v>0.83333333333333337</v>
@@ -1308,7 +1322,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="12">
         <v>0.8125</v>
@@ -1325,13 +1339,13 @@
         <v>13</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="12">
         <v>0.8125</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1342,7 +1356,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="12">
         <v>0.8125</v>
@@ -1359,7 +1373,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="12">
         <v>0.8125</v>
@@ -1376,7 +1390,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="12">
         <v>0.58333333333333337</v>
@@ -1393,7 +1407,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="12">
         <v>0.625</v>
@@ -1428,19 +1442,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1448,10 +1462,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="10">
         <v>0.8125</v>
@@ -1465,10 +1479,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="12">
         <v>0.8125</v>
@@ -1482,10 +1496,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="12">
         <v>0.8125</v>
@@ -1499,10 +1513,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="12">
         <v>0.8125</v>
@@ -1516,16 +1530,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="12">
         <v>0.75</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1533,10 +1547,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="12">
         <v>0.8125</v>
@@ -1550,10 +1564,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="12">
         <v>0.625</v>
@@ -1588,19 +1602,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1611,13 +1625,13 @@
         <v>17</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="10">
         <v>0.79166666666666663</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1628,7 +1642,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="10">
         <v>0.79166666666666663</v>
@@ -1645,7 +1659,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="12">
         <v>0.79166666666666663</v>
@@ -1662,7 +1676,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="12">
         <v>0.79166666666666663</v>
@@ -1679,7 +1693,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="12">
         <v>0.75</v>
@@ -1696,7 +1710,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="12">
         <v>0.8125</v>
@@ -1713,7 +1727,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="12">
         <v>0.79166666666666663</v>
@@ -1730,7 +1744,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="12">
         <v>0.79166666666666663</v>
@@ -1747,7 +1761,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="12">
         <v>0.79166666666666663</v>
@@ -1764,7 +1778,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="12">
         <v>0.58333333333333337</v>
@@ -1781,7 +1795,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="12">
         <v>0.625</v>
@@ -1815,19 +1829,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1838,7 +1852,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10">
         <v>0.8125</v>
@@ -1855,7 +1869,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="10">
         <v>0.83333333333333337</v>
@@ -1872,7 +1886,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="12">
         <v>0.8125</v>
@@ -1889,7 +1903,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="12">
         <v>0.83333333333333337</v>
@@ -1906,7 +1920,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="12">
         <v>0.8125</v>
@@ -1923,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="12">
         <v>0.8125</v>
@@ -1940,13 +1954,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="12">
         <v>0.6875</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1957,13 +1971,13 @@
         <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1974,7 +1988,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="12">
         <v>0.8125</v>
@@ -2009,19 +2023,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2032,7 +2046,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="10">
         <v>0.8125</v>
@@ -2049,7 +2063,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="10">
         <v>0.79166666666666663</v>
@@ -2066,7 +2080,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="12">
         <v>0.79166666666666663</v>
@@ -2083,13 +2097,13 @@
         <v>14</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="12">
         <v>0.79166666666666663</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2100,7 +2114,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="12">
         <v>0.83333333333333337</v>
@@ -2117,7 +2131,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="12">
         <v>0.83333333333333337</v>
@@ -2134,7 +2148,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="12">
         <v>0.8125</v>
@@ -2151,7 +2165,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="12">
         <v>0.79166666666666663</v>
@@ -2168,7 +2182,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="12">
         <v>0.6875</v>
@@ -2185,13 +2199,13 @@
         <v>14</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="12">
         <v>0.8125</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2219,19 +2233,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2239,10 +2253,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="10">
         <v>0.75</v>
@@ -2256,10 +2270,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="12">
         <v>0.75</v>
@@ -2273,10 +2287,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="12">
         <v>0.8125</v>
@@ -2290,10 +2304,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="12">
         <v>0.79166666666666663</v>
@@ -2307,16 +2321,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="12">
         <v>0.8125</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2324,10 +2338,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="12">
         <v>0.8125</v>
@@ -2341,10 +2355,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="12">
         <v>0.75</v>
@@ -2358,10 +2372,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="12">
         <v>0.79166666666666663</v>
@@ -2375,10 +2389,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="12">
         <v>0.8125</v>
@@ -2412,19 +2426,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2435,13 +2449,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10">
         <v>0.79166666666666663</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2452,7 +2466,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="10">
         <v>0.75</v>
@@ -2469,7 +2483,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="12">
         <v>0.79166666666666663</v>
@@ -2486,7 +2500,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="12">
         <v>0.75</v>
@@ -2503,7 +2517,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="12">
         <v>0.79166666666666663</v>
@@ -2520,7 +2534,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="12">
         <v>0.79166666666666663</v>
@@ -2537,7 +2551,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="12">
         <v>0.79166666666666663</v>
@@ -2554,7 +2568,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="12">
         <v>0.79166666666666663</v>
@@ -2571,7 +2585,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="12">
         <v>0.79166666666666663</v>
@@ -2606,19 +2620,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2629,7 +2643,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10">
         <v>0.8125</v>
@@ -2646,13 +2660,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="12">
         <v>0.79166666666666663</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2663,7 +2677,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="12">
         <v>0.8125</v>
@@ -2680,13 +2694,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="12">
         <v>0.79166666666666663</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2697,7 +2711,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="12">
         <v>0.8125</v>
@@ -2714,7 +2728,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="12">
         <v>0.8125</v>
@@ -2731,7 +2745,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="12">
         <v>0.79166666666666663</v>
@@ -2765,19 +2779,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2788,7 +2802,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="10">
         <v>0.75</v>
@@ -2805,7 +2819,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="10">
         <v>0.75</v>
@@ -2822,7 +2836,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="12">
         <v>0.8125</v>
@@ -2839,13 +2853,13 @@
         <v>16</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="12">
         <v>0.75</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2856,7 +2870,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="12">
         <v>0.83333333333333337</v>
@@ -2873,7 +2887,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="12">
         <v>0.83333333333333337</v>
@@ -2890,7 +2904,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="12">
         <v>0.75</v>
@@ -2907,13 +2921,13 @@
         <v>16</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="12">
         <v>0.8125</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2924,7 +2938,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="12">
         <v>0.6875</v>
@@ -2941,13 +2955,13 @@
         <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="12">
         <v>0.625</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2976,19 +2990,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2996,10 +3010,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="10">
         <v>0.8125</v>
@@ -3013,10 +3027,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="12">
         <v>0.8125</v>
@@ -3030,10 +3044,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="12">
         <v>0.79166666666666663</v>
@@ -3047,10 +3061,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="12">
         <v>0.79166666666666663</v>
@@ -3064,10 +3078,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="12">
         <v>0.79166666666666663</v>
@@ -3081,10 +3095,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="12">
         <v>0.8125</v>
@@ -3098,10 +3112,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="12">
         <v>0.79166666666666663</v>
@@ -3115,10 +3129,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="12">
         <v>0.625</v>
@@ -3140,7 +3154,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3152,30 +3166,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>18</v>
+      <c r="B2" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="10">
         <v>0.8125</v>
@@ -3188,28 +3202,28 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>18</v>
+      <c r="B3" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="10">
         <v>0.79166666666666663</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>18</v>
+      <c r="B4" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="12">
         <v>0.79166666666666663</v>
@@ -3222,11 +3236,11 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>18</v>
+      <c r="B5" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="12">
         <v>0.83333333333333337</v>
@@ -3239,11 +3253,11 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>18</v>
+      <c r="B6" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="12">
         <v>0.8125</v>
@@ -3256,11 +3270,11 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>18</v>
+      <c r="B7" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="12">
         <v>0.8125</v>
@@ -3273,28 +3287,28 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>18</v>
+      <c r="B8" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="12">
         <v>0.8125</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>18</v>
+      <c r="B9" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="12">
         <v>0.79166666666666663</v>
@@ -3307,11 +3321,11 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>18</v>
+      <c r="B10" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="12">
         <v>0.8125</v>
@@ -3324,11 +3338,11 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>18</v>
+      <c r="B11" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="12">
         <v>0.79166666666666663</v>
